--- a/data/trans_orig/PER_DISPO_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_DISPO_VERDE-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes en Barcelona</t>
+          <t>Percepción de la disponibilidad de zonas verdes en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_DISPO_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_DISPO_VERDE-Clase-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>166939</t>
+          <t>166057</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>181184</t>
+          <t>180725</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>169661</t>
+          <t>168982</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>183609</t>
+          <t>183269</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>80,32%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>339610</t>
+          <t>341495</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>360153</t>
+          <t>361043</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>86,91%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23824</t>
+          <t>24283</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38069</t>
+          <t>38951</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26787</t>
+          <t>27127</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40735</t>
+          <t>41414</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>55251</t>
+          <t>54361</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>75794</t>
+          <t>73909</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>104372</t>
+          <t>104207</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>114407</t>
+          <t>114055</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>139377</t>
+          <t>139529</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>151555</t>
+          <t>151467</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>248165</t>
+          <t>247655</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>262955</t>
+          <t>263503</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9724</t>
+          <t>10076</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19759</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17488</t>
+          <t>17576</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>29666</t>
+          <t>29514</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>30219</t>
+          <t>29671</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>45009</t>
+          <t>45519</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81435</t>
+          <t>81185</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>89916</t>
+          <t>89794</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42543</t>
+          <t>42608</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50918</t>
+          <t>50692</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>127100</t>
+          <t>126641</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>138817</t>
+          <t>138584</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>90,49%</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14718</t>
+          <t>14968</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1552,12 +1552,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6073</t>
+          <t>6299</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14448</t>
+          <t>14383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>14327</t>
+          <t>14560</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>26044</t>
+          <t>26503</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>17,31%</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>133008</t>
+          <t>132632</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>148017</t>
+          <t>147977</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>136056</t>
+          <t>136737</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>147555</t>
+          <t>147575</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>274205</t>
+          <t>273992</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>292542</t>
+          <t>292286</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,76%</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15125</t>
+          <t>15165</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30134</t>
+          <t>30510</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1895,12 +1895,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11353</t>
+          <t>11333</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22852</t>
+          <t>22171</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>29509</t>
+          <t>29765</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>47846</t>
+          <t>48059</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1965,12 +1965,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>14,92%</t>
         </is>
       </c>
     </row>
@@ -2110,12 +2110,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41523</t>
+          <t>41735</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49377</t>
+          <t>49376</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>78,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>64372</t>
+          <t>64984</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>79900</t>
+          <t>79495</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2160,12 +2160,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>84,49%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>110509</t>
+          <t>110181</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>127238</t>
+          <t>126744</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>86,15%</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11508</t>
+          <t>11296</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14185</t>
+          <t>14590</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29713</t>
+          <t>29101</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>19879</t>
+          <t>20373</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>36608</t>
+          <t>36936</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30204</t>
+          <t>29704</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34737</t>
+          <t>34830</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>55498</t>
+          <t>55378</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>61016</t>
+          <t>60930</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>87475</t>
+          <t>87488</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>94537</t>
+          <t>94469</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2538,12 +2538,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,57%</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6343</t>
+          <t>6843</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>7852</t>
+          <t>7972</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>5360</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>12422</t>
+          <t>12409</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>578526</t>
+          <t>578291</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>603992</t>
+          <t>603880</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>631020</t>
+          <t>627928</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>658514</t>
+          <t>658166</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1217791</t>
+          <t>1218168</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1255408</t>
+          <t>1256210</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>87,8%</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>74020</t>
+          <t>74132</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>99486</t>
+          <t>99721</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2924,12 +2924,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94260</t>
+          <t>94608</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>121754</t>
+          <t>124846</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>175379</t>
+          <t>174577</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212996</t>
+          <t>212619</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,86%</t>
         </is>
       </c>
     </row>
